--- a/biology/Zoologie/André_Badonnel/André_Badonnel.xlsx
+++ b/biology/Zoologie/André_Badonnel/André_Badonnel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Badonnel</t>
+          <t>André_Badonnel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Badonnel, est un entomologiste français, spécialiste des psocoptères, né le 5 juillet 1898 à Épinal et mort le 30 avril 1991 à Paris 12e. 
-Ayant dominé la psocidologie mondiale pendant près de six décennies[1], il est l'auteur d'une œuvre considérable. Il est connu du public français pour son volume de la série Faune de France publié en 1943[2].
-Sa collection est déposée au Muséum d'histoire naturelle de Genève[3].
+Ayant dominé la psocidologie mondiale pendant près de six décennies, il est l'auteur d'une œuvre considérable. Il est connu du public français pour son volume de la série Faune de France publié en 1943.
+Sa collection est déposée au Muséum d'histoire naturelle de Genève.
 </t>
         </is>
       </c>
